--- a/Player Database/Messi.xlsx
+++ b/Player Database/Messi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="21">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">Copa Am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">WC</t>
@@ -312,15 +309,14 @@
   <dimension ref="A1:H666"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="12" sqref="D65 D104 D546 D559 D590 D592:D593 D624 D626:D627 D637 D640 D643 D648:D649 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,8 +1985,8 @@
       <c r="C65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>19</v>
+      <c r="D65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>0</v>
@@ -2987,8 +2983,8 @@
       <c r="C104" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>19</v>
+      <c r="D104" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E104" s="5" t="n">
         <v>0</v>
@@ -3687,7 +3683,7 @@
         <v>41833</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>90</v>
@@ -3713,7 +3709,7 @@
         <v>41829</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>90</v>
@@ -3739,7 +3735,7 @@
         <v>41825</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>90</v>
@@ -3765,7 +3761,7 @@
         <v>41821</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>90</v>
@@ -3791,7 +3787,7 @@
         <v>41815</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>62</v>
@@ -3817,7 +3813,7 @@
         <v>41811</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>90</v>
@@ -3843,7 +3839,7 @@
         <v>41805</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>90</v>
@@ -10291,7 +10287,7 @@
         <v>40362</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D387" s="5" t="n">
         <v>90</v>
@@ -10317,7 +10313,7 @@
         <v>40356</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D388" s="5" t="n">
         <v>90</v>
@@ -10343,7 +10339,7 @@
         <v>40351</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D389" s="5" t="n">
         <v>90</v>
@@ -10369,7 +10365,7 @@
         <v>40346</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D390" s="5" t="n">
         <v>90</v>
@@ -10395,7 +10391,7 @@
         <v>40341</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D391" s="5" t="n">
         <v>90</v>
@@ -13699,7 +13695,7 @@
         <v>39682</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D519" s="5" t="n">
         <v>90</v>
@@ -13725,7 +13721,7 @@
         <v>39679</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D520" s="5" t="n">
         <v>90</v>
@@ -13751,7 +13747,7 @@
         <v>39676</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D521" s="5" t="n">
         <v>90</v>
@@ -13777,7 +13773,7 @@
         <v>39670</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D522" s="5" t="n">
         <v>90</v>
@@ -13803,7 +13799,7 @@
         <v>39667</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D523" s="5" t="n">
         <v>90</v>
@@ -14403,8 +14399,8 @@
       <c r="C546" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D546" s="5" t="s">
-        <v>19</v>
+      <c r="D546" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E546" s="5" t="n">
         <v>0</v>
@@ -14741,8 +14737,8 @@
       <c r="C559" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D559" s="5" t="s">
-        <v>19</v>
+      <c r="D559" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E559" s="5" t="n">
         <v>1</v>
@@ -15547,8 +15543,8 @@
       <c r="C590" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D590" s="5" t="s">
-        <v>19</v>
+      <c r="D590" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E590" s="5" t="n">
         <v>0</v>
@@ -15599,8 +15595,8 @@
       <c r="C592" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D592" s="5" t="s">
-        <v>19</v>
+      <c r="D592" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E592" s="5" t="n">
         <v>0</v>
@@ -15625,8 +15621,8 @@
       <c r="C593" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D593" s="5" t="s">
-        <v>19</v>
+      <c r="D593" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E593" s="5" t="n">
         <v>0</v>
@@ -16083,7 +16079,7 @@
         <v>38898</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D611" s="5" t="n">
         <v>0</v>
@@ -16101,7 +16097,7 @@
         <v>38892</v>
       </c>
       <c r="C612" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D612" s="5" t="n">
         <v>7</v>
@@ -16127,7 +16123,7 @@
         <v>38889</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D613" s="5" t="n">
         <v>68</v>
@@ -16153,7 +16149,7 @@
         <v>38884</v>
       </c>
       <c r="C614" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D614" s="5" t="n">
         <v>17</v>
@@ -16179,7 +16175,7 @@
         <v>38878</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D615" s="5" t="n">
         <v>0</v>
@@ -16399,8 +16395,8 @@
       <c r="C624" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D624" s="5" t="s">
-        <v>19</v>
+      <c r="D624" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E624" s="5" t="n">
         <v>1</v>
@@ -16451,8 +16447,8 @@
       <c r="C626" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D626" s="5" t="s">
-        <v>19</v>
+      <c r="D626" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E626" s="5" t="n">
         <v>2</v>
@@ -16477,8 +16473,8 @@
       <c r="C627" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D627" s="5" t="s">
-        <v>19</v>
+      <c r="D627" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E627" s="5" t="n">
         <v>1</v>
@@ -16729,8 +16725,8 @@
       <c r="C637" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D637" s="5" t="s">
-        <v>19</v>
+      <c r="D637" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E637" s="5" t="n">
         <v>0</v>
@@ -16799,8 +16795,8 @@
       <c r="C640" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D640" s="5" t="s">
-        <v>19</v>
+      <c r="D640" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E640" s="5" t="n">
         <v>0</v>
@@ -16877,8 +16873,8 @@
       <c r="C643" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D643" s="5" t="s">
-        <v>19</v>
+      <c r="D643" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E643" s="5" t="n">
         <v>0</v>
@@ -16991,8 +16987,8 @@
       <c r="C648" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D648" s="5" t="s">
-        <v>19</v>
+      <c r="D648" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E648" s="5" t="n">
         <v>1</v>
@@ -17017,8 +17013,8 @@
       <c r="C649" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D649" s="5" t="s">
-        <v>19</v>
+      <c r="D649" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E649" s="5" t="n">
         <v>0</v>
